--- a/Mereni/esp8266/Výsledky měření.xlsx
+++ b/Mereni/esp8266/Výsledky měření.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programming\MP_NETIO_BUTTON\mereni\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programming\MP_NETIO_BUTTON\Mereni\esp8266\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC88FE35-F13F-49F5-8C10-563499BC5AD1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66DEA76F-1264-485B-944E-842A21A20BD2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{11C4E342-A7A8-4CD3-AA61-06B44577753C}"/>
+    <workbookView minimized="1" xWindow="19680" yWindow="3285" windowWidth="17430" windowHeight="13485" firstSheet="1" activeTab="2" xr2:uid="{11C4E342-A7A8-4CD3-AA61-06B44577753C}"/>
   </bookViews>
   <sheets>
     <sheet name="Ustálené stavy" sheetId="8" r:id="rId1"/>
@@ -535,7 +535,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normální" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -747,7 +747,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1045,7 +1045,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{449A67C8-5FE3-4EE1-BCE6-4B64138D4CE1}">
   <dimension ref="A1:M807"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
@@ -10250,10 +10250,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0384769D-AB4F-4BE1-B26A-15ED3A0BBAB2}">
-  <dimension ref="A1:O58"/>
+  <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10293,8 +10293,7 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <f>51</f>
-        <v>51</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -10396,41 +10395,41 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>-23.437504000000001</v>
+        <v>-23.188480519999999</v>
       </c>
       <c r="B8">
         <f>C8+$C$1</f>
-        <v>0.10823199999999999</v>
+        <v>8.2008200000000003E-2</v>
       </c>
       <c r="C8">
-        <v>0.11489199999999999</v>
+        <v>8.8668200000000003E-2</v>
       </c>
       <c r="E8" s="9">
         <f>1/B3</f>
         <v>1.4646649578908823E-2</v>
       </c>
       <c r="F8" s="10">
-        <f>SUM(B8:B52)</f>
-        <v>4.3287936000000009</v>
+        <f>SUM(B8:B35)</f>
+        <v>2.5303342999999998</v>
       </c>
       <c r="G8" s="10">
-        <f>A58-A8</f>
-        <v>0.73242199999999968</v>
+        <f>A41-A8</f>
+        <v>0.48339851999999794</v>
       </c>
       <c r="H8" s="10">
         <f>F8/B4</f>
-        <v>8.4878305882352956E-2</v>
+        <v>7.6676796969696967E-2</v>
       </c>
       <c r="I8" s="5">
         <v>3.3</v>
       </c>
       <c r="J8" s="10">
         <f>I8*H8</f>
-        <v>0.28009840941176473</v>
+        <v>0.25303343</v>
       </c>
       <c r="K8" s="11">
         <f>J8*(G8/3600)</f>
-        <v>5.6986177005050956E-5</v>
+        <v>3.3976662659034194E-5</v>
       </c>
       <c r="L8" s="9">
         <v>3750</v>
@@ -10444,339 +10443,339 @@
       </c>
       <c r="O8" s="11">
         <f>N8/K8</f>
-        <v>296124.44432803919</v>
+        <v>496664.43609678769</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>-23.422855559999999</v>
+        <v>-23.17383208</v>
       </c>
       <c r="B9">
-        <f t="shared" ref="B9:B58" si="0">C9+$C$1</f>
-        <v>0.24793199999999999</v>
+        <f>C9+$C$1</f>
+        <v>8.1531400000000004E-2</v>
       </c>
       <c r="C9">
-        <v>0.25459199999999998</v>
+        <v>8.8191400000000003E-2</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>-23.40820712</v>
+        <v>-23.159183639999998</v>
       </c>
       <c r="B10">
-        <f t="shared" si="0"/>
-        <v>0.12015200000000001</v>
+        <f>C10+$C$1</f>
+        <v>8.2008200000000003E-2</v>
       </c>
       <c r="C10">
-        <v>0.12681200000000001</v>
+        <v>8.8668200000000003E-2</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>-23.393558680000002</v>
+        <v>-23.1445352</v>
       </c>
       <c r="B11">
-        <f t="shared" si="0"/>
-        <v>0.102987</v>
+        <f>C11+$C$1</f>
+        <v>8.1531400000000004E-2</v>
       </c>
       <c r="C11">
-        <v>0.10964699999999999</v>
+        <v>8.8191400000000003E-2</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>-23.37891024</v>
+        <v>-23.129886760000002</v>
       </c>
       <c r="B12">
-        <f t="shared" si="0"/>
-        <v>8.3438600000000002E-2</v>
+        <f>C12+$C$1</f>
+        <v>8.1531400000000004E-2</v>
       </c>
       <c r="C12">
-        <v>9.0098600000000001E-2</v>
+        <v>8.8191400000000003E-2</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>-23.364261800000001</v>
+        <v>-23.11523832</v>
       </c>
       <c r="B13">
-        <f t="shared" si="0"/>
-        <v>8.1054600000000004E-2</v>
+        <f>C13+$C$1</f>
+        <v>8.2008200000000003E-2</v>
       </c>
       <c r="C13">
-        <v>8.7714600000000004E-2</v>
+        <v>8.8668200000000003E-2</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>-23.349613359999999</v>
+        <v>-23.100589880000001</v>
       </c>
       <c r="B14">
-        <f t="shared" si="0"/>
-        <v>8.1054600000000004E-2</v>
+        <f>C14+$C$1</f>
+        <v>8.2008200000000003E-2</v>
       </c>
       <c r="C14">
-        <v>8.7714600000000004E-2</v>
+        <v>8.8668200000000003E-2</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>-23.334964920000001</v>
+        <v>-23.085941439999999</v>
       </c>
       <c r="B15">
-        <f t="shared" si="0"/>
-        <v>8.1054600000000004E-2</v>
+        <f>C15+$C$1</f>
+        <v>8.7729700000000008E-2</v>
       </c>
       <c r="C15">
-        <v>8.7714600000000004E-2</v>
+        <v>9.4389700000000007E-2</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>-23.320316479999999</v>
+        <v>-23.071293000000001</v>
       </c>
       <c r="B16">
-        <f t="shared" si="0"/>
-        <v>8.1054600000000004E-2</v>
+        <f>C16+$C$1</f>
+        <v>8.7252899999999994E-2</v>
       </c>
       <c r="C16">
-        <v>8.7714600000000004E-2</v>
+        <v>9.3912899999999994E-2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>-23.30566804</v>
+        <v>-23.056644559999999</v>
       </c>
       <c r="B17">
-        <f t="shared" si="0"/>
-        <v>8.1054600000000004E-2</v>
+        <f>C17+$C$1</f>
+        <v>8.2008200000000003E-2</v>
       </c>
       <c r="C17">
-        <v>8.7714600000000004E-2</v>
+        <v>8.8668200000000003E-2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>-23.291019599999998</v>
+        <v>-23.04199612</v>
       </c>
       <c r="B18">
-        <f t="shared" si="0"/>
-        <v>8.1054600000000004E-2</v>
+        <f>C18+$C$1</f>
+        <v>8.2008200000000003E-2</v>
       </c>
       <c r="C18">
-        <v>8.7714600000000004E-2</v>
+        <v>8.8668200000000003E-2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>-23.27637116</v>
+        <v>-23.027347679999998</v>
       </c>
       <c r="B19">
-        <f t="shared" si="0"/>
-        <v>8.3438600000000002E-2</v>
+        <f>C19+$C$1</f>
+        <v>8.2008200000000003E-2</v>
       </c>
       <c r="C19">
-        <v>9.0098600000000001E-2</v>
+        <v>8.8668200000000003E-2</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>-23.261722720000002</v>
+        <v>-23.01269924</v>
       </c>
       <c r="B20">
-        <f t="shared" si="0"/>
-        <v>0.12062800000000001</v>
+        <f>C20+$C$1</f>
+        <v>8.2008200000000003E-2</v>
       </c>
       <c r="C20">
-        <v>0.12728800000000001</v>
+        <v>8.8668200000000003E-2</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>-23.24707428</v>
+        <v>-22.998050800000001</v>
       </c>
       <c r="B21">
-        <f t="shared" si="0"/>
-        <v>0.13969999999999999</v>
+        <f>C21+$C$1</f>
+        <v>8.2008200000000003E-2</v>
       </c>
       <c r="C21">
-        <v>0.14635999999999999</v>
+        <v>8.8668200000000003E-2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>-23.232425840000001</v>
+        <v>-22.983402359999999</v>
       </c>
       <c r="B22">
-        <f t="shared" si="0"/>
-        <v>0.13731599999999999</v>
+        <f>C22+$C$1</f>
+        <v>8.2008200000000003E-2</v>
       </c>
       <c r="C22">
-        <v>0.14397599999999999</v>
+        <v>8.8668200000000003E-2</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>-23.217777399999999</v>
+        <v>-22.968753920000001</v>
       </c>
       <c r="B23">
-        <f t="shared" si="0"/>
-        <v>8.6299299999999995E-2</v>
+        <f>C23+$C$1</f>
+        <v>8.6776099999999995E-2</v>
       </c>
       <c r="C23">
-        <v>9.2959299999999995E-2</v>
+        <v>9.3436099999999994E-2</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>-23.203128960000001</v>
+        <v>-22.954105479999999</v>
       </c>
       <c r="B24">
-        <f t="shared" si="0"/>
-        <v>8.2008200000000003E-2</v>
+        <f>C24+$C$1</f>
+        <v>0.12634999999999999</v>
       </c>
       <c r="C24">
-        <v>8.8668200000000003E-2</v>
+        <v>0.13300999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>-23.188480519999999</v>
+        <v>-22.939457040000001</v>
       </c>
       <c r="B25">
-        <f t="shared" si="0"/>
-        <v>8.2008200000000003E-2</v>
+        <f>C25+$C$1</f>
+        <v>0.10251</v>
       </c>
       <c r="C25">
-        <v>8.8668200000000003E-2</v>
+        <v>0.10917</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>-23.17383208</v>
+        <v>-22.924808599999999</v>
       </c>
       <c r="B26">
-        <f t="shared" si="0"/>
-        <v>8.1531400000000004E-2</v>
+        <f>C26+$C$1</f>
+        <v>9.0590500000000004E-2</v>
       </c>
       <c r="C26">
-        <v>8.8191400000000003E-2</v>
+        <v>9.7250500000000004E-2</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>-23.159183639999998</v>
+        <v>-22.91016016</v>
       </c>
       <c r="B27">
-        <f t="shared" si="0"/>
-        <v>8.2008200000000003E-2</v>
+        <f>C27+$C$1</f>
+        <v>9.0590500000000004E-2</v>
       </c>
       <c r="C27">
-        <v>8.8668200000000003E-2</v>
+        <v>9.7250500000000004E-2</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>-23.1445352</v>
+        <v>-22.895511719999998</v>
       </c>
       <c r="B28">
-        <f t="shared" si="0"/>
-        <v>8.1531400000000004E-2</v>
+        <f>C28+$C$1</f>
+        <v>9.1067200000000001E-2</v>
       </c>
       <c r="C28">
-        <v>8.8191400000000003E-2</v>
+        <v>9.77272E-2</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>-23.129886760000002</v>
+        <v>-22.88086328</v>
       </c>
       <c r="B29">
-        <f t="shared" si="0"/>
-        <v>8.1531400000000004E-2</v>
+        <f>C29+$C$1</f>
+        <v>9.1067200000000001E-2</v>
       </c>
       <c r="C29">
-        <v>8.8191400000000003E-2</v>
+        <v>9.77272E-2</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>-23.11523832</v>
+        <v>-22.866214840000001</v>
       </c>
       <c r="B30">
-        <f t="shared" si="0"/>
-        <v>8.2008200000000003E-2</v>
+        <f>C30+$C$1</f>
+        <v>9.0590500000000004E-2</v>
       </c>
       <c r="C30">
-        <v>8.8668200000000003E-2</v>
+        <v>9.7250500000000004E-2</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>-23.100589880000001</v>
+        <v>-22.851566399999999</v>
       </c>
       <c r="B31">
-        <f t="shared" si="0"/>
-        <v>8.2008200000000003E-2</v>
+        <f>C31+$C$1</f>
+        <v>0.117768</v>
       </c>
       <c r="C31">
-        <v>8.8668200000000003E-2</v>
+        <v>0.124428</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>-23.085941439999999</v>
+        <v>-22.836917960000001</v>
       </c>
       <c r="B32">
-        <f t="shared" si="0"/>
-        <v>8.7729700000000008E-2</v>
+        <f>C32+$C$1</f>
+        <v>9.1544E-2</v>
       </c>
       <c r="C32">
-        <v>9.4389700000000007E-2</v>
+        <v>9.8204E-2</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>-23.071293000000001</v>
+        <v>-22.822269519999999</v>
       </c>
       <c r="B33">
-        <f t="shared" si="0"/>
-        <v>8.7252899999999994E-2</v>
+        <f>C33+$C$1</f>
+        <v>8.8206500000000007E-2</v>
       </c>
       <c r="C33">
-        <v>9.3912899999999994E-2</v>
+        <v>9.4866500000000006E-2</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>-23.056644559999999</v>
+        <v>-22.807621080000001</v>
       </c>
       <c r="B34">
-        <f t="shared" si="0"/>
-        <v>8.2008200000000003E-2</v>
+        <f>C34+$C$1</f>
+        <v>9.6311999999999995E-2</v>
       </c>
       <c r="C34">
-        <v>8.8668200000000003E-2</v>
+        <v>0.10297199999999999</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>-23.04199612</v>
+        <v>-22.792972639999999</v>
       </c>
       <c r="B35">
-        <f t="shared" si="0"/>
-        <v>8.2008200000000003E-2</v>
+        <f>C35+$C$1</f>
+        <v>0.127303</v>
       </c>
       <c r="C35">
-        <v>8.8668200000000003E-2</v>
+        <v>0.133963</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>-23.027347679999998</v>
+        <v>-22.7783242</v>
       </c>
       <c r="B36">
-        <f t="shared" si="0"/>
+        <f>C36+$C$1</f>
         <v>8.2008200000000003E-2</v>
       </c>
       <c r="C36">
@@ -10785,265 +10784,61 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>-23.01269924</v>
+        <v>-22.763675760000002</v>
       </c>
       <c r="B37">
-        <f t="shared" si="0"/>
-        <v>8.2008200000000003E-2</v>
+        <f>C37+$C$1</f>
+        <v>8.1531400000000004E-2</v>
       </c>
       <c r="C37">
-        <v>8.8668200000000003E-2</v>
+        <v>8.8191400000000003E-2</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>-22.998050800000001</v>
+        <v>-22.74902732</v>
       </c>
       <c r="B38">
-        <f t="shared" si="0"/>
-        <v>8.2008200000000003E-2</v>
+        <f>C38+$C$1</f>
+        <v>8.1531400000000004E-2</v>
       </c>
       <c r="C38">
-        <v>8.8668200000000003E-2</v>
+        <v>8.8191400000000003E-2</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>-22.983402359999999</v>
+        <v>-22.734378880000001</v>
       </c>
       <c r="B39">
-        <f t="shared" si="0"/>
-        <v>8.2008200000000003E-2</v>
+        <f>C39+$C$1</f>
+        <v>8.1531400000000004E-2</v>
       </c>
       <c r="C39">
-        <v>8.8668200000000003E-2</v>
+        <v>8.8191400000000003E-2</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>-22.968753920000001</v>
+        <v>-22.719730439999999</v>
       </c>
       <c r="B40">
-        <f t="shared" si="0"/>
-        <v>8.6776099999999995E-2</v>
+        <f>C40+$C$1</f>
+        <v>8.1531400000000004E-2</v>
       </c>
       <c r="C40">
-        <v>9.3436099999999994E-2</v>
+        <v>8.8191400000000003E-2</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>-22.954105479999999</v>
+        <v>-22.705082000000001</v>
       </c>
       <c r="B41">
-        <f t="shared" si="0"/>
-        <v>0.12634999999999999</v>
+        <f>C41+$C$1</f>
+        <v>6.9134899999999999E-2</v>
       </c>
       <c r="C41">
-        <v>0.13300999999999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>-22.939457040000001</v>
-      </c>
-      <c r="B42">
-        <f t="shared" si="0"/>
-        <v>0.10251</v>
-      </c>
-      <c r="C42">
-        <v>0.10917</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>-22.924808599999999</v>
-      </c>
-      <c r="B43">
-        <f t="shared" si="0"/>
-        <v>9.0590500000000004E-2</v>
-      </c>
-      <c r="C43">
-        <v>9.7250500000000004E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>-22.91016016</v>
-      </c>
-      <c r="B44">
-        <f t="shared" si="0"/>
-        <v>9.0590500000000004E-2</v>
-      </c>
-      <c r="C44">
-        <v>9.7250500000000004E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>-22.895511719999998</v>
-      </c>
-      <c r="B45">
-        <f t="shared" si="0"/>
-        <v>9.1067200000000001E-2</v>
-      </c>
-      <c r="C45">
-        <v>9.77272E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>-22.88086328</v>
-      </c>
-      <c r="B46">
-        <f t="shared" si="0"/>
-        <v>9.1067200000000001E-2</v>
-      </c>
-      <c r="C46">
-        <v>9.77272E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>-22.866214840000001</v>
-      </c>
-      <c r="B47">
-        <f t="shared" si="0"/>
-        <v>9.0590500000000004E-2</v>
-      </c>
-      <c r="C47">
-        <v>9.7250500000000004E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>-22.851566399999999</v>
-      </c>
-      <c r="B48">
-        <f t="shared" si="0"/>
-        <v>0.117768</v>
-      </c>
-      <c r="C48">
-        <v>0.124428</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>-22.836917960000001</v>
-      </c>
-      <c r="B49">
-        <f t="shared" si="0"/>
-        <v>9.1544E-2</v>
-      </c>
-      <c r="C49">
-        <v>9.8204E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>-22.822269519999999</v>
-      </c>
-      <c r="B50">
-        <f t="shared" si="0"/>
-        <v>8.8206500000000007E-2</v>
-      </c>
-      <c r="C50">
-        <v>9.4866500000000006E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>-22.807621080000001</v>
-      </c>
-      <c r="B51">
-        <f t="shared" si="0"/>
-        <v>9.6311999999999995E-2</v>
-      </c>
-      <c r="C51">
-        <v>0.10297199999999999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>-22.792972639999999</v>
-      </c>
-      <c r="B52">
-        <f t="shared" si="0"/>
-        <v>0.127303</v>
-      </c>
-      <c r="C52">
-        <v>0.133963</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>-22.7783242</v>
-      </c>
-      <c r="B53">
-        <f t="shared" si="0"/>
-        <v>8.2008200000000003E-2</v>
-      </c>
-      <c r="C53">
-        <v>8.8668200000000003E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>-22.763675760000002</v>
-      </c>
-      <c r="B54">
-        <f t="shared" si="0"/>
-        <v>8.1531400000000004E-2</v>
-      </c>
-      <c r="C54">
-        <v>8.8191400000000003E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>-22.74902732</v>
-      </c>
-      <c r="B55">
-        <f t="shared" si="0"/>
-        <v>8.1531400000000004E-2</v>
-      </c>
-      <c r="C55">
-        <v>8.8191400000000003E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>-22.734378880000001</v>
-      </c>
-      <c r="B56">
-        <f t="shared" si="0"/>
-        <v>8.1531400000000004E-2</v>
-      </c>
-      <c r="C56">
-        <v>8.8191400000000003E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>-22.719730439999999</v>
-      </c>
-      <c r="B57">
-        <f t="shared" si="0"/>
-        <v>8.1531400000000004E-2</v>
-      </c>
-      <c r="C57">
-        <v>8.8191400000000003E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>-22.705082000000001</v>
-      </c>
-      <c r="B58">
-        <f t="shared" si="0"/>
-        <v>6.9134899999999999E-2</v>
-      </c>
-      <c r="C58">
         <v>7.5794899999999998E-2</v>
       </c>
     </row>
